--- a/_data/featured_work.xlsx
+++ b/_data/featured_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulyngs/Library/Mobile Documents/com~apple~CloudDocs/Website/lyngs-hugo/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBBCB10-479C-264C-8E7C-9F37D7002F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11E7773-FB6B-4444-9373-DA7BCE29AC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>teaser_image</t>
   </si>
   <si>
-    <t>/images/redd-workshop/redd-logo-rect.png</t>
-  </si>
-  <si>
     <t>links</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>[GitHub](https://github.com/ulyngs/rmarkdown-workshop-2019) | [Course slides](https://ulyngs.github.io/rmarkdown-workshop-2019/)</t>
   </si>
   <si>
-    <t>/images/rmd-workshop.png</t>
-  </si>
-  <si>
     <t>https://ulyngs.github.io/rmarkdown-workshop-2019/</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>[GitHub](https://github.com/ulyngs/oxforddown) | [Video tutorial](https://www.youtube.com/watch?v=Yf1W1BBS9cU)</t>
   </si>
   <si>
-    <t>/images/oxforddown_compiled_pdf.png</t>
-  </si>
-  <si>
     <t>https://github.com/ulyngs/oxforddown</t>
   </si>
   <si>
@@ -129,6 +120,15 @@
   </si>
   <si>
     <t>No systematic reviews had been done of the hundreds of apps and browser extensions for supporting self-control over digital devices that are available on online stores. We reviewed design features in 367 such tools on the Google Play, Chrome Web, and Apple App stores and analysed them using a dual systems model of self-regulation.</t>
+  </si>
+  <si>
+    <t>/images/rmd-workshop_small.jpg</t>
+  </si>
+  <si>
+    <t>/images/oxforddown_compiled_pdf_small.jpg</t>
+  </si>
+  <si>
+    <t>/images/redd-workshop/redd-logo-rect-small.jpg</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,22 +553,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="10"/>
@@ -584,20 +584,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -609,16 +609,16 @@
     </row>
     <row r="3" spans="1:15" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -633,16 +633,16 @@
     </row>
     <row r="4" spans="1:15" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -657,23 +657,23 @@
     </row>
     <row r="5" spans="1:15" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -685,23 +685,23 @@
     </row>
     <row r="6" spans="1:15" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
